--- a/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_attr3.xlsx
+++ b/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_attr3.xlsx
@@ -34,16 +34,19 @@
     <t>readmitted</t>
   </si>
   <si>
+    <t>admission_type_id</t>
+  </si>
+  <si>
     <t>age</t>
   </si>
   <si>
-    <t>diag_1</t>
+    <t>gender</t>
   </si>
   <si>
-    <t>diabetesmed</t>
+    <t>admission_source_id</t>
   </si>
   <si>
-    <t>change</t>
+    <t>discharge_disposition_id</t>
   </si>
   <si>
     <t>insulin</t>
@@ -52,22 +55,19 @@
     <t>a1cresult</t>
   </si>
   <si>
-    <t>admission_source_id</t>
+    <t>diag_1</t>
   </si>
   <si>
     <t>race</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
     <t>max_glu_serum</t>
   </si>
   <si>
-    <t>admission_type_id</t>
+    <t>diabetesmed</t>
   </si>
   <si>
-    <t>discharge_disposition_id</t>
+    <t>change</t>
   </si>
   <si>
     <t>number_emergency</t>
@@ -498,7 +498,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1.33026574565604</v>
+        <v>1.305318629005046</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -515,7 +515,7 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1.322941149891886</v>
+        <v>1.297237615862483</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -526,13 +526,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1.283446114314124</v>
+        <v>1.257744371466159</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -543,13 +543,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1.280928061613581</v>
+        <v>1.241409024653609</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -566,7 +566,7 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1.247219128924647</v>
+        <v>1.195228609334394</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -577,13 +577,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7">
-        <v>1.234311351879646</v>
+        <v>1.185325684204344</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -594,13 +594,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1.231466934386661</v>
+        <v>1.178910729646047</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -611,13 +611,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1.231331970542056</v>
+        <v>1.170038204112555</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -628,13 +628,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1.229290307322334</v>
+        <v>1.164824007969451</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -645,13 +645,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1.224744871391589</v>
+        <v>1.164667046888427</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -662,13 +662,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12">
-        <v>1.224744871391589</v>
+        <v>1.163613986228807</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -679,13 +679,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>1.224744871391589</v>
+        <v>1.161676980219609</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -702,7 +702,7 @@
         <v>27</v>
       </c>
       <c r="E14">
-        <v>1.22144810936485</v>
+        <v>1.161394510621746</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -713,13 +713,13 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15">
-        <v>1.217380133109297</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -730,13 +730,13 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16">
-        <v>1.213083635350224</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -747,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1.212924887282058</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -764,13 +764,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>1.210942221657357</v>
+        <v>1.145881092548817</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>1.192217287774038</v>
+        <v>1.13286166967929</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -804,7 +804,7 @@
         <v>28</v>
       </c>
       <c r="E20">
-        <v>1.132371527241788</v>
+        <v>1.097274029906733</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -821,7 +821,7 @@
         <v>28</v>
       </c>
       <c r="E21">
-        <v>1.03406006288781</v>
+        <v>0.9825372751600916</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -838,7 +838,7 @@
         <v>28</v>
       </c>
       <c r="E22">
-        <v>1.031014773513314</v>
+        <v>0.9787096827705548</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -855,7 +855,7 @@
         <v>28</v>
       </c>
       <c r="E23">
-        <v>1.029681155101093</v>
+        <v>0.9767654022322548</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -872,7 +872,7 @@
         <v>28</v>
       </c>
       <c r="E24">
-        <v>1.027228043584789</v>
+        <v>0.9744180604332567</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -889,7 +889,7 @@
         <v>29</v>
       </c>
       <c r="E25">
-        <v>1.019753498354116</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -906,7 +906,7 @@
         <v>29</v>
       </c>
       <c r="E26">
-        <v>1.019753498354116</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -923,7 +923,7 @@
         <v>29</v>
       </c>
       <c r="E27">
-        <v>1.019753498354116</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -940,7 +940,7 @@
         <v>29</v>
       </c>
       <c r="E28">
-        <v>1.019753498354116</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -957,7 +957,7 @@
         <v>29</v>
       </c>
       <c r="E29">
-        <v>1.019753498354116</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -974,7 +974,7 @@
         <v>29</v>
       </c>
       <c r="E30">
-        <v>1.019753498354116</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -991,7 +991,7 @@
         <v>29</v>
       </c>
       <c r="E31">
-        <v>1.019753498354116</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1008,7 +1008,7 @@
         <v>29</v>
       </c>
       <c r="E32">
-        <v>1.019753498354116</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1025,7 +1025,7 @@
         <v>28</v>
       </c>
       <c r="E33">
-        <v>0.9948523503683975</v>
+        <v>0.9351842687032762</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1042,7 +1042,7 @@
         <v>27</v>
       </c>
       <c r="E34">
-        <v>0.692679238735367</v>
+        <v>0.7994146365295418</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1059,7 +1059,7 @@
         <v>27</v>
       </c>
       <c r="E35">
-        <v>0.6638503097842782</v>
+        <v>0.7687606480337096</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1076,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="E36">
-        <v>0.6492794975619873</v>
+        <v>0.7522142849828185</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1093,7 +1093,7 @@
         <v>27</v>
       </c>
       <c r="E37">
-        <v>0.6147763161781084</v>
+        <v>0.7206569261644254</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1110,7 +1110,7 @@
         <v>27</v>
       </c>
       <c r="E38">
-        <v>0.6121705544315434</v>
+        <v>0.6514937824584971</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1118,16 +1118,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E39">
-        <v>0.6092804801032905</v>
+        <v>0.6368855805689471</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1135,16 +1135,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
         <v>27</v>
       </c>
       <c r="E40">
-        <v>0.5886140854486008</v>
+        <v>0.6301572256642718</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1152,16 +1152,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
         <v>27</v>
       </c>
       <c r="E41">
-        <v>0.5718568020232005</v>
+        <v>0.6262117363423966</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1169,16 +1169,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E42">
-        <v>0.5665516521810011</v>
+        <v>0.6036682198750464</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1186,7 +1186,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
         <v>20</v>
@@ -1195,7 +1195,7 @@
         <v>27</v>
       </c>
       <c r="E43">
-        <v>0.5536460599290058</v>
+        <v>0.5664634200989983</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1203,7 +1203,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -1212,7 +1212,7 @@
         <v>27</v>
       </c>
       <c r="E44">
-        <v>0.5495428961442063</v>
+        <v>0.5571359948844319</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1220,16 +1220,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E45">
-        <v>0.5247010962450486</v>
+        <v>0.5510864756971483</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1237,16 +1237,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
         <v>27</v>
       </c>
       <c r="E46">
-        <v>0.5188175118816107</v>
+        <v>0.5355712615805023</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1254,16 +1254,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E47">
-        <v>0.5182571321747</v>
+        <v>0.5045502163589968</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1271,16 +1271,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
         <v>27</v>
       </c>
       <c r="E48">
-        <v>0.5004535148324637</v>
+        <v>0.5017906617626762</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1288,7 +1288,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
         <v>20</v>
@@ -1297,7 +1297,7 @@
         <v>27</v>
       </c>
       <c r="E49">
-        <v>0.483045891539648</v>
+        <v>0.5002353248920979</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1305,16 +1305,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D50" t="s">
         <v>27</v>
       </c>
       <c r="E50">
-        <v>0.4769182114284973</v>
+        <v>0.4706003043609794</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1325,13 +1325,13 @@
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
         <v>27</v>
       </c>
       <c r="E51">
-        <v>0.4698361840651739</v>
+        <v>0.4688577462374878</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1339,16 +1339,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
         <v>27</v>
       </c>
       <c r="E52">
-        <v>0.4636305328901855</v>
+        <v>0.465985898008574</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1356,16 +1356,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D53" t="s">
         <v>27</v>
       </c>
       <c r="E53">
-        <v>0.4516615797743402</v>
+        <v>0.4645756625839638</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1373,16 +1373,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
         <v>27</v>
       </c>
       <c r="E54">
-        <v>0.4364357804719847</v>
+        <v>0.4493196664652865</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1390,7 +1390,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
         <v>19</v>
@@ -1399,7 +1399,7 @@
         <v>27</v>
       </c>
       <c r="E55">
-        <v>0.4206710704388826</v>
+        <v>0.4417452760232857</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1407,7 +1407,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
         <v>20</v>
@@ -1416,7 +1416,7 @@
         <v>27</v>
       </c>
       <c r="E56">
-        <v>0.411781516899489</v>
+        <v>0.4375893590822498</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1424,16 +1424,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
         <v>27</v>
       </c>
       <c r="E57">
-        <v>0.4107683655721296</v>
+        <v>0.4355956723196291</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1441,7 +1441,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
         <v>19</v>
@@ -1450,7 +1450,7 @@
         <v>27</v>
       </c>
       <c r="E58">
-        <v>0.4082482904638631</v>
+        <v>0.4303492721880186</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1458,16 +1458,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D59" t="s">
         <v>27</v>
       </c>
       <c r="E59">
-        <v>0.4077862096248241</v>
+        <v>0.429197537639476</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1478,13 +1478,13 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E60">
-        <v>0.4009068179948901</v>
+        <v>0.4264577865649938</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1492,16 +1492,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E61">
-        <v>0.3985515767923629</v>
+        <v>0.4164835411424118</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1509,16 +1509,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D62" t="s">
         <v>27</v>
       </c>
       <c r="E62">
-        <v>0.3921598492509583</v>
+        <v>0.4155754369548065</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1526,16 +1526,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E63">
-        <v>0.3873672729128227</v>
+        <v>0.3927586013554147</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1543,16 +1543,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D64" t="s">
         <v>27</v>
       </c>
       <c r="E64">
-        <v>0.3830682752181503</v>
+        <v>0.3835216632603558</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1560,7 +1560,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
         <v>18</v>
@@ -1569,7 +1569,7 @@
         <v>26</v>
       </c>
       <c r="E65">
-        <v>0.3781048824147114</v>
+        <v>0.3628363149421409</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1577,16 +1577,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s">
         <v>27</v>
       </c>
       <c r="E66">
-        <v>0.3713906763541037</v>
+        <v>0.3618734322278729</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1594,7 +1594,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
         <v>19</v>
@@ -1603,7 +1603,7 @@
         <v>27</v>
       </c>
       <c r="E67">
-        <v>0.3622806699089211</v>
+        <v>0.3595732599803959</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1611,7 +1611,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
@@ -1620,7 +1620,7 @@
         <v>28</v>
       </c>
       <c r="E68">
-        <v>0.3602000878905241</v>
+        <v>0.3591656209865621</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1628,16 +1628,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D69" t="s">
         <v>27</v>
       </c>
       <c r="E69">
-        <v>0.3578689361185132</v>
+        <v>0.3575964816168041</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1645,7 +1645,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C70" t="s">
         <v>19</v>
@@ -1654,7 +1654,7 @@
         <v>27</v>
       </c>
       <c r="E70">
-        <v>0.3429971702850176</v>
+        <v>0.3554093266554554</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1662,16 +1662,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E71">
-        <v>0.3388948969176778</v>
+        <v>0.3553642804763285</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1679,7 +1679,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
         <v>18</v>
@@ -1688,7 +1688,7 @@
         <v>26</v>
       </c>
       <c r="E72">
-        <v>0.3360485022241518</v>
+        <v>0.3470541235332422</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1696,7 +1696,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
         <v>19</v>
@@ -1705,7 +1705,7 @@
         <v>28</v>
       </c>
       <c r="E73">
-        <v>0.3334424273070583</v>
+        <v>0.3394683776144187</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1713,16 +1713,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E74">
-        <v>0.327006146695285</v>
+        <v>0.3377117555420316</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1730,16 +1730,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D75" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E75">
-        <v>0.3235364410820783</v>
+        <v>0.3293864101830718</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1747,16 +1747,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D76" t="s">
         <v>27</v>
       </c>
       <c r="E76">
-        <v>0.3217436703626405</v>
+        <v>0.3270696334449039</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1764,16 +1764,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E77">
-        <v>0.3176117015830118</v>
+        <v>0.3164890054177701</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1781,7 +1781,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C78" t="s">
         <v>19</v>
@@ -1790,7 +1790,7 @@
         <v>26</v>
       </c>
       <c r="E78">
-        <v>0.3112108176851019</v>
+        <v>0.3112865420541124</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1798,16 +1798,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E79">
-        <v>0.3010398135874556</v>
+        <v>0.3105933902572695</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1815,7 +1815,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>23</v>
@@ -1824,7 +1824,7 @@
         <v>27</v>
       </c>
       <c r="E80">
-        <v>0.2981423969999721</v>
+        <v>0.307409653163414</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1832,7 +1832,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
         <v>18</v>
@@ -1841,7 +1841,7 @@
         <v>26</v>
       </c>
       <c r="E81">
-        <v>0.2907805149731303</v>
+        <v>0.3063316763010351</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1849,16 +1849,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D82" t="s">
         <v>26</v>
       </c>
       <c r="E82">
-        <v>0.2900328188635701</v>
+        <v>0.3018030534214904</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1866,16 +1866,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D83" t="s">
         <v>26</v>
       </c>
       <c r="E83">
-        <v>0.2889571073215574</v>
+        <v>0.2941430754024025</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1883,16 +1883,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>19</v>
       </c>
       <c r="D84" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E84">
-        <v>0.2847858462437191</v>
+        <v>0.2794552524023087</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1900,16 +1900,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E85">
-        <v>0.2821528728132771</v>
+        <v>0.2777273598124332</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1917,16 +1917,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E86">
-        <v>0.2815417260157062</v>
+        <v>0.2736787924381114</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1934,16 +1934,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E87">
-        <v>0.2611164839335469</v>
+        <v>0.2633830977485239</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1951,16 +1951,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D88" t="s">
         <v>26</v>
       </c>
       <c r="E88">
-        <v>0.2590268703784039</v>
+        <v>0.263359650271731</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1968,16 +1968,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E89">
-        <v>0.2499024009332316</v>
+        <v>0.2611204247649495</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1985,16 +1985,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E90">
-        <v>0.247775236208225</v>
+        <v>0.2596620391509338</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2002,7 +2002,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>24</v>
@@ -2011,7 +2011,7 @@
         <v>27</v>
       </c>
       <c r="E91">
-        <v>0.2449285644149921</v>
+        <v>0.2593644267412605</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D92" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E92">
-        <v>0.2437999260925396</v>
+        <v>0.2587419034245154</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2036,16 +2036,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C93" t="s">
         <v>18</v>
       </c>
       <c r="D93" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E93">
-        <v>0.2420639725859896</v>
+        <v>0.2585510103737328</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2053,16 +2053,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E94">
-        <v>0.2396115150315452</v>
+        <v>0.2531848417709165</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
         <v>20</v>
       </c>
       <c r="D95" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E95">
-        <v>0.2369141051978446</v>
+        <v>0.2512751046270372</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2087,16 +2087,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D96" t="s">
         <v>27</v>
       </c>
       <c r="E96">
-        <v>0.2365136303006821</v>
+        <v>0.2499024009332316</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2104,16 +2104,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D97" t="s">
         <v>27</v>
       </c>
       <c r="E97">
-        <v>0.2339221285887721</v>
+        <v>0.2472447742387925</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2121,16 +2121,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D98" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E98">
-        <v>0.2328415162011666</v>
+        <v>0.2451627414233025</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2141,13 +2141,13 @@
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D99" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E99">
-        <v>0.2312744798504894</v>
+        <v>0.2443213453169235</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2155,16 +2155,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D100" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E100">
-        <v>0.2306399328062397</v>
+        <v>0.2439682952175745</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2172,16 +2172,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C101" t="s">
         <v>19</v>
       </c>
       <c r="D101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E101">
-        <v>0.2297736293984688</v>
+        <v>0.2373812836842156</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2189,16 +2189,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E102">
-        <v>0.2284377501816796</v>
+        <v>0.2371622196046394</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2206,7 +2206,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
         <v>18</v>
@@ -2215,7 +2215,7 @@
         <v>28</v>
       </c>
       <c r="E103">
-        <v>0.2252924356350668</v>
+        <v>0.2351995050849085</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2223,16 +2223,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D104" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E104">
-        <v>0.2229234865107078</v>
+        <v>0.22931565533546</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2240,16 +2240,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D105" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E105">
-        <v>0.2216120913819291</v>
+        <v>0.2262268403990177</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2257,16 +2257,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C106" t="s">
         <v>19</v>
       </c>
       <c r="D106" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E106">
-        <v>0.2204263679761045</v>
+        <v>0.2260531025241757</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2274,16 +2274,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D107" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E107">
-        <v>0.2165214408601582</v>
+        <v>0.2220699630592816</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2291,16 +2291,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D108" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E108">
-        <v>0.2148168769040987</v>
+        <v>0.2211953572224159</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2308,16 +2308,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D109" t="s">
         <v>28</v>
       </c>
       <c r="E109">
-        <v>0.2136151658317385</v>
+        <v>0.2204438758894786</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2325,16 +2325,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D110" t="s">
         <v>26</v>
       </c>
       <c r="E110">
-        <v>0.2121940981214041</v>
+        <v>0.2196095843339661</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2342,16 +2342,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E111">
-        <v>0.210772595723481</v>
+        <v>0.2139191221251486</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
         <v>20</v>
       </c>
       <c r="D112" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E112">
-        <v>0.2069156044528952</v>
+        <v>0.2134897374599164</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2385,7 +2385,7 @@
         <v>27</v>
       </c>
       <c r="E113">
-        <v>0.2036728934916318</v>
+        <v>0.212664093935371</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2393,16 +2393,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>20</v>
       </c>
       <c r="D114" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E114">
-        <v>0.2023517080835456</v>
+        <v>0.2121422490511159</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2410,16 +2410,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C115" t="s">
         <v>20</v>
       </c>
       <c r="D115" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E115">
-        <v>0.2008543512316026</v>
+        <v>0.210729410172614</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2427,16 +2427,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D116" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E116">
-        <v>0.1982048417298612</v>
+        <v>0.2098119381381252</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2444,16 +2444,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C117" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D117" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E117">
-        <v>0.1981656304540938</v>
+        <v>0.207309519975488</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2461,16 +2461,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D118" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E118">
-        <v>0.1981115044777438</v>
+        <v>0.2041823382923157</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2478,16 +2478,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D119" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E119">
-        <v>0.1969194231188954</v>
+        <v>0.2027435796352871</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2495,16 +2495,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D120" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E120">
-        <v>0.1956727923303066</v>
+        <v>0.2027435796352871</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2512,16 +2512,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D121" t="s">
         <v>29</v>
       </c>
       <c r="E121">
-        <v>0.1937517098957711</v>
+        <v>0.2027435796352871</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2529,16 +2529,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D122" t="s">
         <v>29</v>
       </c>
       <c r="E122">
-        <v>0.1937517098957711</v>
+        <v>0.2027435796352871</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2546,16 +2546,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D123" t="s">
         <v>29</v>
       </c>
       <c r="E123">
-        <v>0.1937517098957711</v>
+        <v>0.2027435796352871</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2563,16 +2563,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D124" t="s">
         <v>29</v>
       </c>
       <c r="E124">
-        <v>0.1937517098957711</v>
+        <v>0.2027435796352871</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2580,16 +2580,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D125" t="s">
         <v>29</v>
       </c>
       <c r="E125">
-        <v>0.1937517098957711</v>
+        <v>0.2027435796352871</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2597,16 +2597,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D126" t="s">
         <v>29</v>
       </c>
       <c r="E126">
-        <v>0.1937517098957711</v>
+        <v>0.2027435796352871</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2614,16 +2614,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D127" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E127">
-        <v>0.1937517098957711</v>
+        <v>0.2011870653863435</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2631,16 +2631,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D128" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E128">
-        <v>0.1937517098957711</v>
+        <v>0.1992678514799629</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2648,16 +2648,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C129" t="s">
         <v>19</v>
       </c>
       <c r="D129" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E129">
-        <v>0.1929285512085254</v>
+        <v>0.1992101282401019</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2665,16 +2665,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C130" t="s">
         <v>22</v>
       </c>
       <c r="D130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E130">
-        <v>0.1929116013991428</v>
+        <v>0.1990921327414431</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2682,16 +2682,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D131" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E131">
-        <v>0.1923786753253044</v>
+        <v>0.1988195934478389</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2699,16 +2699,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C132" t="s">
         <v>24</v>
       </c>
       <c r="D132" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E132">
-        <v>0.1921922252576479</v>
+        <v>0.1986097997237025</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2716,16 +2716,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C133" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D133" t="s">
         <v>29</v>
       </c>
       <c r="E133">
-        <v>0.1921922252576479</v>
+        <v>0.1966278534061393</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2733,16 +2733,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C134" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D134" t="s">
         <v>29</v>
       </c>
       <c r="E134">
-        <v>0.1921922252576479</v>
+        <v>0.1966278534061393</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2750,16 +2750,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C135" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D135" t="s">
         <v>29</v>
       </c>
       <c r="E135">
-        <v>0.1921922252576479</v>
+        <v>0.1966278534061393</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2767,16 +2767,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C136" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D136" t="s">
         <v>29</v>
       </c>
       <c r="E136">
-        <v>0.1921922252576479</v>
+        <v>0.1966278534061393</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2784,16 +2784,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C137" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D137" t="s">
         <v>29</v>
       </c>
       <c r="E137">
-        <v>0.1921922252576479</v>
+        <v>0.1966278534061393</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2801,16 +2801,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C138" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D138" t="s">
         <v>29</v>
       </c>
       <c r="E138">
-        <v>0.1921922252576479</v>
+        <v>0.1966278534061393</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2818,16 +2818,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C139" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D139" t="s">
         <v>29</v>
       </c>
       <c r="E139">
-        <v>0.1921922252576479</v>
+        <v>0.1966278534061393</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2835,16 +2835,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C140" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D140" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E140">
-        <v>0.1908953822036228</v>
+        <v>0.1966278534061393</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2852,16 +2852,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D141" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E141">
-        <v>0.1900614309633052</v>
+        <v>0.1930277142591496</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2869,16 +2869,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C142" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D142" t="s">
         <v>28</v>
       </c>
       <c r="E142">
-        <v>0.1892647368600361</v>
+        <v>0.1924332010127664</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D143" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E143">
-        <v>0.1880012297859354</v>
+        <v>0.1922686092271574</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2903,16 +2903,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D144" t="s">
         <v>28</v>
       </c>
       <c r="E144">
-        <v>0.1865125084231753</v>
+        <v>0.1921371712288588</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2920,16 +2920,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C145" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D145" t="s">
         <v>28</v>
       </c>
       <c r="E145">
-        <v>0.1864690043672474</v>
+        <v>0.1919894691821146</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2937,7 +2937,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C146" t="s">
         <v>20</v>
@@ -2946,7 +2946,7 @@
         <v>28</v>
       </c>
       <c r="E146">
-        <v>0.1847423673625971</v>
+        <v>0.1919263690748151</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2954,16 +2954,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D147" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E147">
-        <v>0.1843972919407672</v>
+        <v>0.1893255576978286</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2971,16 +2971,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C148" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D148" t="s">
         <v>28</v>
       </c>
       <c r="E148">
-        <v>0.1838955795972052</v>
+        <v>0.1888330335918317</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2988,16 +2988,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C149" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D149" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E149">
-        <v>0.1829006912579481</v>
+        <v>0.1866545046996852</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3005,16 +3005,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C150" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D150" t="s">
         <v>28</v>
       </c>
       <c r="E150">
-        <v>0.1823260106927002</v>
+        <v>0.1864016776873504</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3022,7 +3022,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
         <v>22</v>
@@ -3031,7 +3031,7 @@
         <v>27</v>
       </c>
       <c r="E151">
-        <v>0.1793336742110116</v>
+        <v>0.1850854387100002</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3042,13 +3042,13 @@
         <v>6</v>
       </c>
       <c r="C152" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D152" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E152">
-        <v>0.1785380025528473</v>
+        <v>0.1834118022284168</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3056,16 +3056,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C153" t="s">
         <v>20</v>
       </c>
       <c r="D153" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E153">
-        <v>0.177864358099122</v>
+        <v>0.1831830136681197</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3073,16 +3073,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C154" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D154" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E154">
-        <v>0.1771894283467973</v>
+        <v>0.1817499189354235</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3090,16 +3090,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>25</v>
       </c>
       <c r="D155" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E155">
-        <v>0.1758650406239459</v>
+        <v>0.1807052624249199</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3107,16 +3107,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
         <v>25</v>
       </c>
       <c r="D156" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E156">
-        <v>0.1730498272635304</v>
+        <v>0.177931567611618</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3127,13 +3127,13 @@
         <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D157" t="s">
         <v>28</v>
       </c>
       <c r="E157">
-        <v>0.1720540168363007</v>
+        <v>0.1767695063599327</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3144,13 +3144,13 @@
         <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D158" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E158">
-        <v>0.1718259453580197</v>
+        <v>0.1764957105884482</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3158,16 +3158,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D159" t="s">
         <v>27</v>
       </c>
       <c r="E159">
-        <v>0.1715268964091715</v>
+        <v>0.1758347929055435</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3175,16 +3175,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C160" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D160" t="s">
         <v>28</v>
       </c>
       <c r="E160">
-        <v>0.1708184461093412</v>
+        <v>0.1741250215833821</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3192,16 +3192,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C161" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D161" t="s">
         <v>28</v>
       </c>
       <c r="E161">
-        <v>0.1700413135084245</v>
+        <v>0.1739749288798399</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3209,16 +3209,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D162" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E162">
-        <v>0.1694303608255071</v>
+        <v>0.172284595091837</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3226,16 +3226,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C163" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D163" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E163">
-        <v>0.1694303608255071</v>
+        <v>0.171993270955503</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3243,16 +3243,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D164" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E164">
-        <v>0.1694303608255071</v>
+        <v>0.1709364941625275</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3260,16 +3260,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C165" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D165" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E165">
-        <v>0.1694303608255071</v>
+        <v>0.1687586685208428</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3277,16 +3277,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C166" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D166" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E166">
-        <v>0.1694303608255071</v>
+        <v>0.1670381192706991</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3294,16 +3294,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D167" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E167">
-        <v>0.1694303608255071</v>
+        <v>0.1664876498311624</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3311,16 +3311,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D168" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E168">
-        <v>0.1694303608255071</v>
+        <v>0.1658651150279506</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3328,16 +3328,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C169" t="s">
         <v>23</v>
       </c>
       <c r="D169" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E169">
-        <v>0.1694303608255071</v>
+        <v>0.1641527224869496</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3345,16 +3345,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C170" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D170" t="s">
         <v>28</v>
       </c>
       <c r="E170">
-        <v>0.168864642655439</v>
+        <v>0.1639399200966974</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3362,16 +3362,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C171" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D171" t="s">
         <v>28</v>
       </c>
       <c r="E171">
-        <v>0.1682656175964565</v>
+        <v>0.1638240074667872</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3379,16 +3379,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C172" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D172" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E172">
-        <v>0.1682372695325973</v>
+        <v>0.162849985413532</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3396,16 +3396,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C173" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D173" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E173">
-        <v>0.1681775058938568</v>
+        <v>0.1625062942967448</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3413,16 +3413,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C174" t="s">
         <v>24</v>
       </c>
       <c r="D174" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E174">
-        <v>0.1676371642086841</v>
+        <v>0.1625062942967448</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3430,16 +3430,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C175" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D175" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E175">
-        <v>0.1676002641190473</v>
+        <v>0.1625062942967448</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3447,16 +3447,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C176" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D176" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E176">
-        <v>0.1675346111222238</v>
+        <v>0.1625062942967448</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3464,16 +3464,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C177" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D177" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E177">
-        <v>0.1662713855349349</v>
+        <v>0.1625062942967448</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3481,16 +3481,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C178" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D178" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E178">
-        <v>0.1646267161833282</v>
+        <v>0.1625062942967448</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3498,16 +3498,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C179" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D179" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E179">
-        <v>0.1636138307061843</v>
+        <v>0.1625062942967448</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3515,16 +3515,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C180" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D180" t="s">
         <v>29</v>
       </c>
       <c r="E180">
-        <v>0.1614059258302993</v>
+        <v>0.1625062942967448</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3532,16 +3532,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C181" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D181" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E181">
-        <v>0.1614059258302993</v>
+        <v>0.1606014808887375</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3549,16 +3549,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C182" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D182" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E182">
-        <v>0.1614059258302993</v>
+        <v>0.1602111286954473</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3566,16 +3566,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C183" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D183" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E183">
-        <v>0.1614059258302993</v>
+        <v>0.1599028539570696</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3583,16 +3583,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C184" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D184" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E184">
-        <v>0.1614059258302993</v>
+        <v>0.1592279954643048</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3600,16 +3600,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C185" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D185" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E185">
-        <v>0.1614059258302993</v>
+        <v>0.1581819605588347</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3617,16 +3617,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C186" t="s">
         <v>22</v>
       </c>
       <c r="D186" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E186">
-        <v>0.1614059258302993</v>
+        <v>0.157005759814389</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3634,16 +3634,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C187" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D187" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E187">
-        <v>0.1614059258302993</v>
+        <v>0.1559988726914648</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3651,16 +3651,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C188" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D188" t="s">
         <v>28</v>
       </c>
       <c r="E188">
-        <v>0.1609791519276353</v>
+        <v>0.1542810884679599</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3668,16 +3668,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C189" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D189" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E189">
-        <v>0.160638810881536</v>
+        <v>0.1526706830305626</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3685,16 +3685,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D190" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E190">
-        <v>0.1592205185334895</v>
+        <v>0.1491950053788028</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3702,16 +3702,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D191" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E191">
-        <v>0.1587200856773122</v>
+        <v>0.1491950053788028</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3719,16 +3719,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D192" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E192">
-        <v>0.1568707654933255</v>
+        <v>0.1491950053788028</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3736,16 +3736,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D193" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E193">
-        <v>0.1567655082453554</v>
+        <v>0.1491950053788028</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3753,16 +3753,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D194" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E194">
-        <v>0.1544682457072485</v>
+        <v>0.1491950053788028</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3770,16 +3770,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D195" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E195">
-        <v>0.1540608435274864</v>
+        <v>0.1491950053788028</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3787,16 +3787,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D196" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E196">
-        <v>0.1540440849725227</v>
+        <v>0.1491950053788028</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3804,16 +3804,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D197" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E197">
-        <v>0.1538354249662048</v>
+        <v>0.1491950053788028</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3821,16 +3821,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D198" t="s">
         <v>28</v>
       </c>
       <c r="E198">
-        <v>0.1535977913002073</v>
+        <v>0.1486323699210653</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3838,16 +3838,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C199" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D199" t="s">
         <v>28</v>
       </c>
       <c r="E199">
-        <v>0.1529075067960022</v>
+        <v>0.1480037336041354</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3855,16 +3855,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D200" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E200">
-        <v>0.1524071458849553</v>
+        <v>0.1477123275494565</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3872,16 +3872,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C201" t="s">
         <v>20</v>
       </c>
       <c r="D201" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E201">
-        <v>0.1522258138913671</v>
+        <v>0.1461700999711723</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3889,7 +3889,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C202" t="s">
         <v>24</v>
@@ -3898,7 +3898,7 @@
         <v>27</v>
       </c>
       <c r="E202">
-        <v>0.151192389015512</v>
+        <v>0.1460746744259347</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3906,7 +3906,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
         <v>23</v>
@@ -3915,7 +3915,7 @@
         <v>28</v>
       </c>
       <c r="E203">
-        <v>0.1509333475747382</v>
+        <v>0.1448388981554113</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3923,16 +3923,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C204" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D204" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E204">
-        <v>0.1505032313647207</v>
+        <v>0.1445596207731382</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3940,16 +3940,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C205" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D205" t="s">
         <v>28</v>
       </c>
       <c r="E205">
-        <v>0.150324560005944</v>
+        <v>0.1442558080538447</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3957,16 +3957,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C206" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D206" t="s">
         <v>26</v>
       </c>
       <c r="E206">
-        <v>0.1499398127190513</v>
+        <v>0.1438448990134779</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3974,16 +3974,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C207" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D207" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E207">
-        <v>0.1482564277929046</v>
+        <v>0.1436095068793359</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3991,16 +3991,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D208" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E208">
-        <v>0.1482564277929046</v>
+        <v>0.1431745831762377</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4014,10 +4014,10 @@
         <v>19</v>
       </c>
       <c r="D209" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E209">
-        <v>0.1482564277929046</v>
+        <v>0.1412950993662513</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4025,16 +4025,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C210" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D210" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E210">
-        <v>0.1482564277929046</v>
+        <v>0.1396677190387018</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4042,16 +4042,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C211" t="s">
         <v>21</v>
       </c>
       <c r="D211" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E211">
-        <v>0.1482564277929046</v>
+        <v>0.1391429957682498</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4059,7 +4059,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>24</v>
@@ -4068,7 +4068,7 @@
         <v>29</v>
       </c>
       <c r="E212">
-        <v>0.1482564277929046</v>
+        <v>0.1389373374147654</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4076,7 +4076,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>25</v>
@@ -4085,7 +4085,7 @@
         <v>29</v>
       </c>
       <c r="E213">
-        <v>0.1482564277929046</v>
+        <v>0.1389373374147654</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4093,7 +4093,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>22</v>
@@ -4102,7 +4102,7 @@
         <v>29</v>
       </c>
       <c r="E214">
-        <v>0.1482564277929046</v>
+        <v>0.1389373374147654</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4113,13 +4113,13 @@
         <v>7</v>
       </c>
       <c r="C215" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D215" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E215">
-        <v>0.146700636292671</v>
+        <v>0.1389373374147654</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4127,16 +4127,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D216" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E216">
-        <v>0.1467006362926706</v>
+        <v>0.1389373374147654</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4144,16 +4144,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D217" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E217">
-        <v>0.1462035112109801</v>
+        <v>0.1389373374147654</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4161,16 +4161,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D218" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E218">
-        <v>0.1449689467754572</v>
+        <v>0.1389373374147654</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4178,16 +4178,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D219" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E219">
-        <v>0.1422033309914891</v>
+        <v>0.1389373374147654</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4195,16 +4195,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D220" t="s">
         <v>28</v>
       </c>
       <c r="E220">
-        <v>0.1415809004762844</v>
+        <v>0.1387092917568707</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4218,10 +4218,10 @@
         <v>22</v>
       </c>
       <c r="D221" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E221">
-        <v>0.1410070263024502</v>
+        <v>0.1381105722989479</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4229,16 +4229,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C222" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D222" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E222">
-        <v>0.1401232678594752</v>
+        <v>0.1379094594979584</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4246,16 +4246,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D223" t="s">
         <v>28</v>
       </c>
       <c r="E223">
-        <v>0.1400316867661543</v>
+        <v>0.1368756641978273</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4263,16 +4263,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C224" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D224" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E224">
-        <v>0.137900125265931</v>
+        <v>0.1355330486799629</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4280,16 +4280,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C225" t="s">
         <v>24</v>
       </c>
       <c r="D225" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E225">
-        <v>0.1370111855813537</v>
+        <v>0.1355330486799629</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4297,16 +4297,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C226" t="s">
         <v>25</v>
       </c>
       <c r="D226" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E226">
-        <v>0.1366756456430742</v>
+        <v>0.1355330486799629</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4314,16 +4314,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C227" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D227" t="s">
         <v>29</v>
       </c>
       <c r="E227">
-        <v>0.1366035007607526</v>
+        <v>0.1355330486799629</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4331,16 +4331,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C228" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D228" t="s">
         <v>29</v>
       </c>
       <c r="E228">
-        <v>0.1366035007607526</v>
+        <v>0.1355330486799629</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4348,16 +4348,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C229" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D229" t="s">
         <v>29</v>
       </c>
       <c r="E229">
-        <v>0.1366035007607526</v>
+        <v>0.1355330486799629</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4365,16 +4365,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C230" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D230" t="s">
         <v>29</v>
       </c>
       <c r="E230">
-        <v>0.1366035007607526</v>
+        <v>0.1355330486799629</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4382,16 +4382,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C231" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D231" t="s">
         <v>29</v>
       </c>
       <c r="E231">
-        <v>0.1366035007607526</v>
+        <v>0.1355330486799629</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4399,16 +4399,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C232" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D232" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E232">
-        <v>0.1366035007607526</v>
+        <v>0.13538919110134</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4416,16 +4416,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C233" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D233" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E233">
-        <v>0.1366035007607526</v>
+        <v>0.1347549505522094</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4433,16 +4433,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C234" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D234" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E234">
-        <v>0.1366035007607526</v>
+        <v>0.133913275736124</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4450,16 +4450,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>22</v>
       </c>
       <c r="D235" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E235">
-        <v>0.1353431084663931</v>
+        <v>0.1311926966410569</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4467,16 +4467,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C236" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D236" t="s">
         <v>28</v>
       </c>
       <c r="E236">
-        <v>0.1345926443281533</v>
+        <v>0.1309971795014946</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4484,16 +4484,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C237" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D237" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E237">
-        <v>0.1333532996610058</v>
+        <v>0.1289693333098487</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4504,13 +4504,13 @@
         <v>6</v>
       </c>
       <c r="C238" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D238" t="s">
         <v>28</v>
       </c>
       <c r="E238">
-        <v>0.1330567242614692</v>
+        <v>0.1288805391660184</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4518,16 +4518,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C239" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D239" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E239">
-        <v>0.131301193935085</v>
+        <v>0.1285082443090796</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4535,16 +4535,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C240" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D240" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E240">
-        <v>0.131301193935085</v>
+        <v>0.1274022188337104</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4552,16 +4552,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C241" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D241" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E241">
-        <v>0.131301193935085</v>
+        <v>0.1273821319051633</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4569,7 +4569,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C242" t="s">
         <v>18</v>
@@ -4578,7 +4578,7 @@
         <v>29</v>
       </c>
       <c r="E242">
-        <v>0.131301193935085</v>
+        <v>0.1273708720619999</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4586,7 +4586,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C243" t="s">
         <v>19</v>
@@ -4595,7 +4595,7 @@
         <v>29</v>
       </c>
       <c r="E243">
-        <v>0.131301193935085</v>
+        <v>0.1273708720619999</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4603,7 +4603,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C244" t="s">
         <v>23</v>
@@ -4612,7 +4612,7 @@
         <v>29</v>
       </c>
       <c r="E244">
-        <v>0.131301193935085</v>
+        <v>0.1273708720619999</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4620,7 +4620,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C245" t="s">
         <v>21</v>
@@ -4629,7 +4629,7 @@
         <v>29</v>
       </c>
       <c r="E245">
-        <v>0.131301193935085</v>
+        <v>0.1273708720619999</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4637,7 +4637,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C246" t="s">
         <v>24</v>
@@ -4646,7 +4646,7 @@
         <v>29</v>
       </c>
       <c r="E246">
-        <v>0.131301193935085</v>
+        <v>0.1273708720619999</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4657,13 +4657,13 @@
         <v>13</v>
       </c>
       <c r="C247" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D247" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E247">
-        <v>0.1290745340518793</v>
+        <v>0.1273708720619999</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4671,16 +4671,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C248" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D248" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E248">
-        <v>0.1252523675044954</v>
+        <v>0.1273708720619999</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4688,16 +4688,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C249" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D249" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E249">
-        <v>0.1250397219046023</v>
+        <v>0.1273708720619999</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4708,13 +4708,13 @@
         <v>11</v>
       </c>
       <c r="C250" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D250" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E250">
-        <v>0.1241089907315287</v>
+        <v>0.1270325895680207</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4722,16 +4722,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C251" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D251" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E251">
-        <v>0.1240115276213818</v>
+        <v>0.1229564446264322</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4739,16 +4739,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D252" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E252">
-        <v>0.1217157385246895</v>
+        <v>0.1225665911995525</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4756,16 +4756,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>23</v>
       </c>
       <c r="D253" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E253">
-        <v>0.1216609364856163</v>
+        <v>0.1216014413733953</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4773,16 +4773,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D254" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E254">
-        <v>0.1214195349966747</v>
+        <v>0.1213135223451859</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4790,16 +4790,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>24</v>
       </c>
       <c r="D255" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E255">
-        <v>0.1214195349966747</v>
+        <v>0.1212320158632013</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4807,16 +4807,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C256" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D256" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E256">
-        <v>0.1214195349966747</v>
+        <v>0.1197237656984574</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4824,16 +4824,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C257" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D257" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E257">
-        <v>0.1214195349966747</v>
+        <v>0.1196672816889009</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4841,16 +4841,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C258" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D258" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E258">
-        <v>0.1214195349966747</v>
+        <v>0.1177159080280181</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4861,13 +4861,13 @@
         <v>13</v>
       </c>
       <c r="C259" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D259" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E259">
-        <v>0.1214195349966747</v>
+        <v>0.1173091319598943</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4875,16 +4875,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C260" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D260" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E260">
-        <v>0.1214195349966747</v>
+        <v>0.1163411573126757</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4892,16 +4892,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C261" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D261" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E261">
-        <v>0.1214195349966747</v>
+        <v>0.1151826328237816</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4912,13 +4912,13 @@
         <v>9</v>
       </c>
       <c r="C262" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D262" t="s">
         <v>26</v>
       </c>
       <c r="E262">
-        <v>0.1209976997765162</v>
+        <v>0.1151282828888126</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4926,16 +4926,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C263" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D263" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E263">
-        <v>0.1207632066612715</v>
+        <v>0.1139373541018425</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4943,16 +4943,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C264" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D264" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E264">
-        <v>0.1205056313354613</v>
+        <v>0.1139292622574977</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4963,13 +4963,13 @@
         <v>6</v>
       </c>
       <c r="C265" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D265" t="s">
         <v>26</v>
       </c>
       <c r="E265">
-        <v>0.1179491004214353</v>
+        <v>0.1136245978995536</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4977,16 +4977,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C266" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D266" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E266">
-        <v>0.1176366627700735</v>
+        <v>0.1114575111130403</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4994,16 +4994,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C267" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D267" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E267">
-        <v>0.1167803045345221</v>
+        <v>0.1114575111130403</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5011,16 +5011,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C268" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D268" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E268">
-        <v>0.115703411472896</v>
+        <v>0.1114575111130403</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5028,16 +5028,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C269" t="s">
         <v>21</v>
       </c>
       <c r="D269" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E269">
-        <v>0.1148633589373313</v>
+        <v>0.1114575111130403</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5045,16 +5045,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C270" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D270" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E270">
-        <v>0.1142204640866838</v>
+        <v>0.1114575111130403</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5062,16 +5062,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C271" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D271" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E271">
-        <v>0.1138626587763028</v>
+        <v>0.1114575111130403</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5079,16 +5079,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C272" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D272" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E272">
-        <v>0.1137964534374344</v>
+        <v>0.1114575111130403</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5096,16 +5096,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C273" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D273" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E273">
-        <v>0.1121417263958589</v>
+        <v>0.1114575111130403</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5113,16 +5113,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C274" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D274" t="s">
         <v>26</v>
       </c>
       <c r="E274">
-        <v>0.1119275664863836</v>
+        <v>0.1109357685249294</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5130,16 +5130,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C275" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D275" t="s">
         <v>28</v>
       </c>
       <c r="E275">
-        <v>0.1118495595887549</v>
+        <v>0.1103504028240218</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5147,16 +5147,16 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C276" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D276" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E276">
-        <v>0.1099755975836937</v>
+        <v>0.1097603843556264</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5164,16 +5164,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C277" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D277" t="s">
         <v>26</v>
       </c>
       <c r="E277">
-        <v>0.1084314687839213</v>
+        <v>0.1089401530263827</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5181,16 +5181,16 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C278" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D278" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E278">
-        <v>0.108389180294497</v>
+        <v>0.108665113753857</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5198,16 +5198,16 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C279" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D279" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E279">
-        <v>0.1082881661423261</v>
+        <v>0.1084712527030675</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5215,16 +5215,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C280" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D280" t="s">
         <v>28</v>
       </c>
       <c r="E280">
-        <v>0.1079142016486307</v>
+        <v>0.1083238484550982</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5235,13 +5235,13 @@
         <v>13</v>
       </c>
       <c r="C281" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D281" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E281">
-        <v>0.107819333303826</v>
+        <v>0.1083090641748675</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5249,16 +5249,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C282" t="s">
         <v>24</v>
       </c>
       <c r="D282" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E282">
-        <v>0.1076986745273667</v>
+        <v>0.1080232702670203</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5266,16 +5266,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C283" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D283" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E283">
-        <v>0.1075689229964459</v>
+        <v>0.1080232702670203</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5283,16 +5283,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C284" t="s">
         <v>22</v>
       </c>
       <c r="D284" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E284">
-        <v>0.1065005606603646</v>
+        <v>0.1080232702670203</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5300,16 +5300,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C285" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D285" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E285">
-        <v>0.1064306394120699</v>
+        <v>0.1080232702670203</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5317,16 +5317,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C286" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D286" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E286">
-        <v>0.1052392258529631</v>
+        <v>0.1080232702670203</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5334,16 +5334,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C287" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D287" t="s">
         <v>29</v>
       </c>
       <c r="E287">
-        <v>0.10493139966075</v>
+        <v>0.1080232702670203</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5351,16 +5351,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C288" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D288" t="s">
         <v>29</v>
       </c>
       <c r="E288">
-        <v>0.10493139966075</v>
+        <v>0.1080232702670203</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5368,16 +5368,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C289" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D289" t="s">
         <v>29</v>
       </c>
       <c r="E289">
-        <v>0.10493139966075</v>
+        <v>0.1080232702670203</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5385,16 +5385,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C290" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D290" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E290">
-        <v>0.10493139966075</v>
+        <v>0.1074537680678933</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5402,16 +5402,16 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C291" t="s">
         <v>22</v>
       </c>
       <c r="D291" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E291">
-        <v>0.10493139966075</v>
+        <v>0.1072500536250404</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5419,16 +5419,16 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C292" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D292" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E292">
-        <v>0.10493139966075</v>
+        <v>0.1066084890925938</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5436,16 +5436,16 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C293" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D293" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E293">
-        <v>0.10493139966075</v>
+        <v>0.1065005606603646</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5453,16 +5453,16 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C294" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D294" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E294">
-        <v>0.10493139966075</v>
+        <v>0.1058283712772146</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5470,16 +5470,16 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C295" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D295" t="s">
         <v>28</v>
       </c>
       <c r="E295">
-        <v>0.1049008144237605</v>
+        <v>0.1054719714041043</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5487,16 +5487,16 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C296" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D296" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E296">
-        <v>0.1047117184876302</v>
+        <v>0.1054591569844389</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5504,16 +5504,16 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C297" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D297" t="s">
         <v>28</v>
       </c>
       <c r="E297">
-        <v>0.1044601196877557</v>
+        <v>0.105057974450282</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5521,16 +5521,16 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C298" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D298" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E298">
-        <v>0.1044469814251386</v>
+        <v>0.1037125546651499</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5538,16 +5538,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C299" t="s">
         <v>22</v>
       </c>
       <c r="D299" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E299">
-        <v>0.1039290914541111</v>
+        <v>0.1036658397681784</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5555,16 +5555,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C300" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D300" t="s">
         <v>26</v>
       </c>
       <c r="E300">
-        <v>0.1036850609950511</v>
+        <v>0.1030308008570231</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5572,7 +5572,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C301" t="s">
         <v>22</v>
@@ -5581,7 +5581,7 @@
         <v>26</v>
       </c>
       <c r="E301">
-        <v>0.1035270169165111</v>
+        <v>0.1028378897441709</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5589,16 +5589,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C302" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D302" t="s">
         <v>28</v>
       </c>
       <c r="E302">
-        <v>0.1026213456134868</v>
+        <v>0.1020434759546857</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5606,16 +5606,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C303" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D303" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E303">
-        <v>0.1023456101965095</v>
+        <v>0.1019483300678279</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5623,16 +5623,16 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C304" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D304" t="s">
         <v>26</v>
       </c>
       <c r="E304">
-        <v>0.09903974337729776</v>
+        <v>0.1015057609813009</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5640,16 +5640,16 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C305" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D305" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E305">
-        <v>0.0986861339034623</v>
+        <v>0.1014941717671325</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5657,16 +5657,16 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C306" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D306" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E306">
-        <v>0.09795975067350364</v>
+        <v>0.1014069365486418</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5674,16 +5674,16 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C307" t="s">
         <v>23</v>
       </c>
       <c r="D307" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E307">
-        <v>0.09733088098392746</v>
+        <v>0.1012462423767882</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5691,16 +5691,16 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C308" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D308" t="s">
         <v>26</v>
       </c>
       <c r="E308">
-        <v>0.0966457443436745</v>
+        <v>0.1002483770013931</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5708,16 +5708,16 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C309" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D309" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E309">
-        <v>0.09501368328041233</v>
+        <v>0.09875720563321944</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5725,16 +5725,16 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C310" t="s">
         <v>22</v>
       </c>
       <c r="D310" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E310">
-        <v>0.09498664832619962</v>
+        <v>0.09868099740858569</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5742,16 +5742,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C311" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D311" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E311">
-        <v>0.09407913815635263</v>
+        <v>0.09824783949368718</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5759,16 +5759,16 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C312" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D312" t="s">
         <v>26</v>
       </c>
       <c r="E312">
-        <v>0.09397289742954848</v>
+        <v>0.09702224893370273</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5776,16 +5776,16 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C313" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D313" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E313">
-        <v>0.0939336220889832</v>
+        <v>0.09691989986200115</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5793,16 +5793,16 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C314" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D314" t="s">
         <v>29</v>
       </c>
       <c r="E314">
-        <v>0.0939336220889832</v>
+        <v>0.09662244733254041</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5810,16 +5810,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C315" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D315" t="s">
         <v>29</v>
       </c>
       <c r="E315">
-        <v>0.0939336220889832</v>
+        <v>0.09662244733254041</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5827,16 +5827,16 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C316" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D316" t="s">
         <v>29</v>
       </c>
       <c r="E316">
-        <v>0.0939336220889832</v>
+        <v>0.09662244733254041</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5844,16 +5844,16 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C317" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D317" t="s">
         <v>29</v>
       </c>
       <c r="E317">
-        <v>0.0939336220889832</v>
+        <v>0.09662244733254041</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5861,16 +5861,16 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C318" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D318" t="s">
         <v>29</v>
       </c>
       <c r="E318">
-        <v>0.0939336220889832</v>
+        <v>0.09662244733254041</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5878,16 +5878,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C319" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D319" t="s">
         <v>29</v>
       </c>
       <c r="E319">
-        <v>0.0939336220889832</v>
+        <v>0.09662244733254041</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5895,16 +5895,16 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C320" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D320" t="s">
         <v>29</v>
       </c>
       <c r="E320">
-        <v>0.0939336220889832</v>
+        <v>0.09662244733254041</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5912,16 +5912,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C321" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D321" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E321">
-        <v>0.09164820120343749</v>
+        <v>0.09662244733254041</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5932,13 +5932,13 @@
         <v>9</v>
       </c>
       <c r="C322" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D322" t="s">
         <v>26</v>
       </c>
       <c r="E322">
-        <v>0.0905519374502175</v>
+        <v>0.09471255417804221</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5946,16 +5946,16 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C323" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D323" t="s">
         <v>26</v>
       </c>
       <c r="E323">
-        <v>0.08999348215226968</v>
+        <v>0.09465876503354442</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5963,7 +5963,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C324" t="s">
         <v>23</v>
@@ -5972,7 +5972,7 @@
         <v>28</v>
       </c>
       <c r="E324">
-        <v>0.08994427255980331</v>
+        <v>0.09179996578715108</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5980,16 +5980,16 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C325" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D325" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E325">
-        <v>0.08965461127069757</v>
+        <v>0.08876757928216038</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5997,7 +5997,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C326" t="s">
         <v>22</v>
@@ -6006,7 +6006,7 @@
         <v>26</v>
       </c>
       <c r="E326">
-        <v>0.08858949736447384</v>
+        <v>0.0882504942950742</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6014,16 +6014,16 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C327" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D327" t="s">
         <v>28</v>
       </c>
       <c r="E327">
-        <v>0.08829094092176652</v>
+        <v>0.0879603612889388</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6031,16 +6031,16 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C328" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D328" t="s">
         <v>26</v>
       </c>
       <c r="E328">
-        <v>0.08557912623520372</v>
+        <v>0.08747561691418272</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6048,16 +6048,16 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C329" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D329" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E329">
-        <v>0.08480302113795306</v>
+        <v>0.08388069798282027</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6065,16 +6065,16 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C330" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D330" t="s">
         <v>26</v>
       </c>
       <c r="E330">
-        <v>0.08287226159193387</v>
+        <v>0.0829328441204798</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6082,16 +6082,16 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C331" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D331" t="s">
         <v>28</v>
       </c>
       <c r="E331">
-        <v>0.08213688832580716</v>
+        <v>0.08048363927964011</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6099,7 +6099,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C332" t="s">
         <v>24</v>
@@ -6108,7 +6108,7 @@
         <v>26</v>
       </c>
       <c r="E332">
-        <v>0.08159932554957587</v>
+        <v>0.0784784372050349</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6116,16 +6116,16 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C333" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D333" t="s">
         <v>26</v>
       </c>
       <c r="E333">
-        <v>0.08125221890726206</v>
+        <v>0.07728153581602455</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6133,7 +6133,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C334" t="s">
         <v>19</v>
@@ -6142,7 +6142,7 @@
         <v>26</v>
       </c>
       <c r="E334">
-        <v>0.08038429381297825</v>
+        <v>0.07702624307621904</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6150,16 +6150,16 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C335" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D335" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E335">
-        <v>0.08031775919438573</v>
+        <v>0.07621959706663892</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6167,16 +6167,16 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C336" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D336" t="s">
         <v>26</v>
       </c>
       <c r="E336">
-        <v>0.08023399311023778</v>
+        <v>0.07593539559751655</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6184,16 +6184,16 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C337" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D337" t="s">
         <v>28</v>
       </c>
       <c r="E337">
-        <v>0.07810161925920694</v>
+        <v>0.07557104583484008</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6201,7 +6201,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C338" t="s">
         <v>23</v>
@@ -6210,7 +6210,7 @@
         <v>26</v>
       </c>
       <c r="E338">
-        <v>0.07613767868637539</v>
+        <v>0.07544273493710153</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6218,16 +6218,16 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C339" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D339" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E339">
-        <v>0.07537888829026926</v>
+        <v>0.07441892400051239</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6235,16 +6235,16 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C340" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D340" t="s">
         <v>26</v>
       </c>
       <c r="E340">
-        <v>0.07508290348160018</v>
+        <v>0.07365894325563782</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6252,16 +6252,16 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C341" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D341" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E341">
-        <v>0.07489111378515076</v>
+        <v>0.07346015977071957</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6269,16 +6269,16 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C342" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D342" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E342">
-        <v>0.07286746180707261</v>
+        <v>0.07259096348019674</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6286,7 +6286,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C343" t="s">
         <v>21</v>
@@ -6295,7 +6295,7 @@
         <v>26</v>
       </c>
       <c r="E343">
-        <v>0.07064667224172962</v>
+        <v>0.07059606832466513</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6303,7 +6303,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C344" t="s">
         <v>23</v>
@@ -6312,7 +6312,7 @@
         <v>26</v>
       </c>
       <c r="E344">
-        <v>0.07033731674751886</v>
+        <v>0.0698856124046446</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6320,16 +6320,16 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C345" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D345" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E345">
-        <v>0.0686823736254029</v>
+        <v>0.06987017878786826</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6337,16 +6337,16 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C346" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D346" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E346">
-        <v>0.06770064550264944</v>
+        <v>0.06987017878786826</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6354,16 +6354,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C347" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D347" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E347">
-        <v>0.06752764151879953</v>
+        <v>0.06987017878786826</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6371,16 +6371,16 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C348" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D348" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E348">
-        <v>0.06669023653863022</v>
+        <v>0.06987017878786826</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6391,13 +6391,13 @@
         <v>15</v>
       </c>
       <c r="C349" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D349" t="s">
         <v>29</v>
       </c>
       <c r="E349">
-        <v>0.065503043894464</v>
+        <v>0.06987017878786826</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6408,13 +6408,13 @@
         <v>15</v>
       </c>
       <c r="C350" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D350" t="s">
         <v>29</v>
       </c>
       <c r="E350">
-        <v>0.065503043894464</v>
+        <v>0.06987017878786826</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6425,13 +6425,13 @@
         <v>15</v>
       </c>
       <c r="C351" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D351" t="s">
         <v>29</v>
       </c>
       <c r="E351">
-        <v>0.065503043894464</v>
+        <v>0.06987017878786826</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6442,13 +6442,13 @@
         <v>15</v>
       </c>
       <c r="C352" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D352" t="s">
         <v>29</v>
       </c>
       <c r="E352">
-        <v>0.065503043894464</v>
+        <v>0.06987017878786826</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6456,16 +6456,16 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C353" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D353" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E353">
-        <v>0.065503043894464</v>
+        <v>0.06915101965928726</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6476,13 +6476,13 @@
         <v>15</v>
       </c>
       <c r="C354" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D354" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E354">
-        <v>0.065503043894464</v>
+        <v>0.06720991679599807</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6490,16 +6490,16 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C355" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D355" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E355">
-        <v>0.065503043894464</v>
+        <v>0.06714623782970217</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6507,16 +6507,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C356" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D356" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E356">
-        <v>0.065503043894464</v>
+        <v>0.06665272776104333</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6524,16 +6524,16 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C357" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D357" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E357">
-        <v>0.06519368579883979</v>
+        <v>0.06645561083058504</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6541,16 +6541,16 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C358" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D358" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E358">
-        <v>0.06499871258114605</v>
+        <v>0.06385348941289529</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6558,16 +6558,16 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C359" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D359" t="s">
         <v>26</v>
       </c>
       <c r="E359">
-        <v>0.06328463072225292</v>
+        <v>0.06283012195680442</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6575,16 +6575,16 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C360" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D360" t="s">
         <v>26</v>
       </c>
       <c r="E360">
-        <v>0.0618593566090949</v>
+        <v>0.06228595795354776</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6592,16 +6592,16 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C361" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D361" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E361">
-        <v>0.06148285644404642</v>
+        <v>0.06185880142840704</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6609,16 +6609,16 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C362" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D362" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E362">
-        <v>0.06140542667999309</v>
+        <v>0.06177827777177018</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6626,16 +6626,16 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C363" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D363" t="s">
         <v>28</v>
       </c>
       <c r="E363">
-        <v>0.05997265128723894</v>
+        <v>0.06126293419734193</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6643,16 +6643,16 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C364" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D364" t="s">
         <v>28</v>
       </c>
       <c r="E364">
-        <v>0.05982015358659901</v>
+        <v>0.0610898722300524</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6660,16 +6660,16 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C365" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D365" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E365">
-        <v>0.05909532377431011</v>
+        <v>0.05915870333159431</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6677,16 +6677,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C366" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D366" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E366">
-        <v>0.05635175709786917</v>
+        <v>0.05864228203677616</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6694,16 +6694,16 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C367" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D367" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E367">
-        <v>0.0559621220846719</v>
+        <v>0.05862093397709977</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6711,16 +6711,16 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C368" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D368" t="s">
         <v>28</v>
       </c>
       <c r="E368">
-        <v>0.05512252877157568</v>
+        <v>0.05701159642325668</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6728,16 +6728,16 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C369" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D369" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E369">
-        <v>0.05487528972514328</v>
+        <v>0.05547964933416772</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6745,16 +6745,16 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C370" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D370" t="s">
         <v>29</v>
       </c>
       <c r="E370">
-        <v>0.05487528972514328</v>
+        <v>0.05303596657531193</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6762,16 +6762,16 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C371" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D371" t="s">
         <v>29</v>
       </c>
       <c r="E371">
-        <v>0.05487528972514328</v>
+        <v>0.05303596657531193</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6779,16 +6779,16 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C372" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D372" t="s">
         <v>29</v>
       </c>
       <c r="E372">
-        <v>0.05487528972514328</v>
+        <v>0.05303596657531193</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6796,16 +6796,16 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C373" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D373" t="s">
         <v>29</v>
       </c>
       <c r="E373">
-        <v>0.05487528972514328</v>
+        <v>0.05303596657531193</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6813,16 +6813,16 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C374" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D374" t="s">
         <v>29</v>
       </c>
       <c r="E374">
-        <v>0.05487528972514328</v>
+        <v>0.05303596657531193</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6830,16 +6830,16 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C375" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D375" t="s">
         <v>29</v>
       </c>
       <c r="E375">
-        <v>0.05487528972514328</v>
+        <v>0.05303596657531193</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6847,16 +6847,16 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C376" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D376" t="s">
         <v>29</v>
       </c>
       <c r="E376">
-        <v>0.05487528972514328</v>
+        <v>0.05303596657531193</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6864,16 +6864,16 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C377" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D377" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E377">
-        <v>0.05158288867806682</v>
+        <v>0.05303596657531193</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6881,16 +6881,16 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C378" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D378" t="s">
         <v>26</v>
       </c>
       <c r="E378">
-        <v>0.04778532308364111</v>
+        <v>0.05237867185198579</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6898,16 +6898,16 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C379" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D379" t="s">
         <v>26</v>
       </c>
       <c r="E379">
-        <v>0.04777966151180534</v>
+        <v>0.05090140454077279</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6915,7 +6915,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C380" t="s">
         <v>25</v>
@@ -6924,7 +6924,7 @@
         <v>28</v>
       </c>
       <c r="E380">
-        <v>0.04281869924937964</v>
+        <v>0.04977134596497719</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6932,16 +6932,16 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C381" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D381" t="s">
         <v>26</v>
       </c>
       <c r="E381">
-        <v>0.04235942430768568</v>
+        <v>0.04599042269828241</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6949,7 +6949,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C382" t="s">
         <v>23</v>
@@ -6958,7 +6958,7 @@
         <v>26</v>
       </c>
       <c r="E382">
-        <v>0.04185449332554275</v>
+        <v>0.04254580258198245</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6966,16 +6966,16 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C383" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D383" t="s">
         <v>26</v>
       </c>
       <c r="E383">
-        <v>0.0413503581058868</v>
+        <v>0.03207261744437436</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6983,7 +6983,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C384" t="s">
         <v>23</v>
@@ -6992,7 +6992,7 @@
         <v>26</v>
       </c>
       <c r="E384">
-        <v>0.03588145407823966</v>
+        <v>0.03050802367163776</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -7000,16 +7000,16 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C385" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D385" t="s">
         <v>26</v>
       </c>
       <c r="E385">
-        <v>0.0238308576138473</v>
+        <v>0.02522220566922288</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -7017,16 +7017,16 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C386" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D386" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E386">
-        <v>0</v>
+        <v>0.02482852497087457</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -7034,10 +7034,10 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C387" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D387" t="s">
         <v>27</v>
@@ -7051,10 +7051,10 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C388" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D388" t="s">
         <v>27</v>
@@ -7068,10 +7068,10 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C389" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D389" t="s">
         <v>27</v>
@@ -7085,10 +7085,10 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C390" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D390" t="s">
         <v>27</v>
@@ -7102,10 +7102,10 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C391" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D391" t="s">
         <v>27</v>
@@ -7119,10 +7119,10 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C392" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D392" t="s">
         <v>27</v>
@@ -7136,10 +7136,10 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C393" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D393" t="s">
         <v>27</v>
@@ -7153,7 +7153,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C394" t="s">
         <v>21</v>
@@ -7170,7 +7170,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C395" t="s">
         <v>25</v>
@@ -7187,10 +7187,10 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C396" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D396" t="s">
         <v>27</v>
@@ -7204,7 +7204,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C397" t="s">
         <v>21</v>
@@ -7221,10 +7221,10 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C398" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D398" t="s">
         <v>27</v>
@@ -7238,10 +7238,10 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C399" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D399" t="s">
         <v>27</v>
@@ -7255,10 +7255,10 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C400" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D400" t="s">
         <v>27</v>
@@ -7272,10 +7272,10 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C401" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D401" t="s">
         <v>27</v>
@@ -7289,10 +7289,10 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C402" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D402" t="s">
         <v>27</v>
@@ -7306,10 +7306,10 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C403" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D403" t="s">
         <v>27</v>
@@ -7340,10 +7340,10 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C405" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D405" t="s">
         <v>27</v>
@@ -7357,10 +7357,10 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C406" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D406" t="s">
         <v>27</v>
@@ -7374,10 +7374,10 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C407" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D407" t="s">
         <v>27</v>
@@ -7391,7 +7391,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C408" t="s">
         <v>23</v>
@@ -7408,7 +7408,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C409" t="s">
         <v>23</v>
@@ -7425,10 +7425,10 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C410" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D410" t="s">
         <v>27</v>
@@ -7442,10 +7442,10 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C411" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D411" t="s">
         <v>27</v>
@@ -7459,10 +7459,10 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C412" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D412" t="s">
         <v>27</v>
@@ -7476,7 +7476,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C413" t="s">
         <v>25</v>
@@ -7493,7 +7493,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C414" t="s">
         <v>23</v>
@@ -7510,10 +7510,10 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C415" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D415" t="s">
         <v>27</v>
@@ -7527,7 +7527,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C416" t="s">
         <v>21</v>
@@ -7544,10 +7544,10 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C417" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D417" t="s">
         <v>27</v>
